--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3044162.308962289</v>
+        <v>3043327.986546905</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613644</v>
+        <v>5736895.963613642</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169739.126259464</v>
+        <v>1169739.12625946</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6288437.571568829</v>
+        <v>6288437.571568831</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -676,10 +676,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>41.90132882518834</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>154.1045359822753</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>82.8579868494414</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>106.9706214097031</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>206.0342074641992</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
@@ -913,10 +913,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>65.61827983573932</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -964,7 +964,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>91.04473440253275</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>80.02871049750352</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1153,7 +1153,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>74.00536571764111</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>7.995099343629819</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>190.3381595318039</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U11" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V11" t="n">
         <v>316.8402373905461</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C13" t="n">
-        <v>68.92731809357737</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
         <v>129.8027652540257</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>29.02000386883326</v>
       </c>
       <c r="U13" t="n">
-        <v>250.471224252999</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>241.6479458835352</v>
@@ -1593,7 +1593,7 @@
         <v>246.7800261198763</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y13" t="n">
         <v>192.9893998987849</v>
@@ -1627,7 +1627,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862723</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
         <v>224.990945096747</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.17977596546299</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>102.4673613588525</v>
       </c>
       <c r="I16" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U16" t="n">
         <v>250.4712242529991</v>
@@ -1827,13 +1827,13 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975957</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862723</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
         <v>224.990945096747</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>33.12209635668076</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
@@ -2070,7 +2070,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>92.62562335128941</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975957</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862723</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
         <v>224.990945096747</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>69.5385661529719</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
         <v>250.4712242529991</v>
@@ -2307,7 +2307,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.571314121122</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975957</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967475</v>
       </c>
       <c r="V23" t="n">
         <v>316.8402373905461</v>
@@ -2478,25 +2478,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>29.17391399311794</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>33.12209635668076</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
         <v>241.6479458835353</v>
@@ -2544,7 +2544,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.4479524106877</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C26" t="n">
-        <v>390.3523293227057</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D26" t="n">
-        <v>384.7482751507132</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E26" t="n">
-        <v>394.5257978711154</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F26" t="n">
-        <v>401.1490924686925</v>
+        <v>193.7301984309778</v>
       </c>
       <c r="G26" t="n">
-        <v>181.551091771222</v>
+        <v>388.9699858089391</v>
       </c>
       <c r="H26" t="n">
-        <v>292.1283969414023</v>
+        <v>292.1283969414022</v>
       </c>
       <c r="I26" t="n">
-        <v>69.81722959894074</v>
+        <v>69.81722959894054</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.2572489966833</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T26" t="n">
-        <v>204.313403755453</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U26" t="n">
-        <v>238.8188713659282</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V26" t="n">
-        <v>330.6681636597273</v>
+        <v>330.6681636597271</v>
       </c>
       <c r="W26" t="n">
-        <v>364.2516823990263</v>
+        <v>364.2516823990261</v>
       </c>
       <c r="X26" t="n">
-        <v>380.9659483955801</v>
+        <v>380.96594839558</v>
       </c>
       <c r="Y26" t="n">
-        <v>381.256290864234</v>
+        <v>381.2562908642338</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.59592320857235</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D28" t="n">
-        <v>142.2286827731623</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>147.3137991733578</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>149.9068717065552</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.51156997956028</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.74897568419752</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>54.29483692479067</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.4822361759079</v>
       </c>
       <c r="U28" t="n">
-        <v>264.2991505221802</v>
+        <v>264.2991505221801</v>
       </c>
       <c r="V28" t="n">
-        <v>255.4758721527164</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W28" t="n">
-        <v>260.6079523890575</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X28" t="n">
-        <v>220.2894080617566</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>206.8173261679659</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.4479524106877</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C29" t="n">
-        <v>390.3523293227057</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D29" t="n">
-        <v>384.7482751507131</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E29" t="n">
-        <v>394.5257978711153</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F29" t="n">
-        <v>401.1490924686924</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G29" t="n">
-        <v>388.9699858089392</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H29" t="n">
-        <v>154.5267325026264</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>69.81722959894049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>118.2572489966833</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>204.3134037554529</v>
+        <v>115.1517587144219</v>
       </c>
       <c r="U29" t="n">
-        <v>238.8188713659281</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V29" t="n">
-        <v>330.6681636597272</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W29" t="n">
-        <v>364.2516823990262</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X29" t="n">
-        <v>380.9659483955801</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y29" t="n">
-        <v>381.2562908642339</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E31" t="n">
-        <v>108.4946902019722</v>
+        <v>143.6306915232066</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>86.30467647194997</v>
       </c>
       <c r="I31" t="n">
-        <v>99.51156997956022</v>
+        <v>99.51156997956002</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>68.74897568419726</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.8568349817317</v>
       </c>
       <c r="T31" t="n">
-        <v>221.482236175908</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>264.2991505221802</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V31" t="n">
-        <v>255.4758721527164</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W31" t="n">
-        <v>260.6079523890575</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X31" t="n">
-        <v>220.2894080617566</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.8173261679661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.4479524106877</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C32" t="n">
-        <v>390.3523293227057</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D32" t="n">
-        <v>384.7482751507131</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E32" t="n">
-        <v>394.5257978711153</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F32" t="n">
-        <v>401.1490924686924</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G32" t="n">
-        <v>388.9699858089392</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H32" t="n">
-        <v>292.1283969414023</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I32" t="n">
-        <v>69.81722959894068</v>
+        <v>69.81722959894049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.1517587144201</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>115.1517587144219</v>
       </c>
       <c r="U32" t="n">
-        <v>238.8188713659281</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V32" t="n">
-        <v>330.6681636597272</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W32" t="n">
-        <v>364.2516823990262</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X32" t="n">
-        <v>380.9659483955801</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y32" t="n">
-        <v>381.2562908642339</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.1516938729471</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C34" t="n">
-        <v>153.7114232567438</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2286827731622</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E34" t="n">
-        <v>77.78897527021212</v>
+        <v>143.6306915232066</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9068717065551</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>99.51156997956002</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>68.74897568419726</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.8568349817317</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>53.6599713462512</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>255.4758721527164</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>260.6079523890575</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>220.2894080617566</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>206.8173261679661</v>
+        <v>206.8173261679658</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.4479524106877</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C35" t="n">
-        <v>390.3523293227057</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D35" t="n">
-        <v>384.7482751507131</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E35" t="n">
-        <v>394.5257978711153</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F35" t="n">
-        <v>401.1490924686924</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G35" t="n">
-        <v>388.9699858089392</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H35" t="n">
-        <v>292.1283969414023</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I35" t="n">
-        <v>69.81722959894068</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>115.1517587144201</v>
+        <v>118.257248996683</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U35" t="n">
-        <v>238.8188713659281</v>
+        <v>101.2172069271545</v>
       </c>
       <c r="V35" t="n">
-        <v>330.6681636597272</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W35" t="n">
-        <v>364.2516823990262</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X35" t="n">
-        <v>380.9659483955801</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y35" t="n">
-        <v>381.2562908642339</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>149.9068717065551</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>99.51156997956022</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.856834981732</v>
+        <v>37.8545663085883</v>
       </c>
       <c r="T37" t="n">
-        <v>221.482236175908</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U37" t="n">
-        <v>264.2991505221802</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V37" t="n">
-        <v>255.4758721527164</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W37" t="n">
-        <v>257.1562620707087</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X37" t="n">
-        <v>220.2894080617566</v>
+        <v>220.2894080617563</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>206.8173261679658</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.4479524106877</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C38" t="n">
-        <v>390.3523293227057</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D38" t="n">
-        <v>384.7482751507131</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E38" t="n">
-        <v>394.5257978711153</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F38" t="n">
-        <v>401.1490924686924</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G38" t="n">
-        <v>388.9699858089392</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H38" t="n">
-        <v>292.1283969414023</v>
+        <v>272.7839814993122</v>
       </c>
       <c r="I38" t="n">
-        <v>69.81722959894068</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>118.2572489966833</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3134037554529</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U38" t="n">
-        <v>238.8188713659281</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V38" t="n">
-        <v>330.6681636597272</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W38" t="n">
-        <v>364.2516823990262</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X38" t="n">
-        <v>173.5470543578636</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y38" t="n">
-        <v>381.2562908642339</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.1516938729471</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C40" t="n">
-        <v>153.7114232567438</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>142.2286827731622</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>143.6306915232068</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>147.3137991733578</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>149.9068717065551</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>132.440365185441</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>99.51156997956022</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>68.74897568419726</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.8568349817317</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U40" t="n">
-        <v>70.97637395042017</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X40" t="n">
-        <v>220.2894080617566</v>
+        <v>20.53816370441573</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.8173261679661</v>
+        <v>206.8173261679658</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>401.5578040935733</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3805,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>351.080144279057</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3912,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>101.1283985290236</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>54.68688746169129</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>205.293418382671</v>
       </c>
       <c r="V44" t="n">
-        <v>300.4920170745502</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>136.1769805884548</v>
       </c>
       <c r="F46" t="n">
-        <v>37.990223306875</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -4194,7 +4194,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1285.591565793852</v>
+        <v>484.2909016982387</v>
       </c>
       <c r="C2" t="n">
-        <v>875.4669751071217</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D2" t="n">
-        <v>471.0030452001823</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E2" t="n">
-        <v>460.703233757483</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>443.7132257515746</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4336,22 +4336,22 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.011766457887</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4363,19 +4363,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>2045.929706909205</v>
       </c>
       <c r="V2" t="n">
-        <v>1831.193789739612</v>
+        <v>1696.092152245686</v>
       </c>
       <c r="W2" t="n">
-        <v>1447.433488874781</v>
+        <v>1696.092152245686</v>
       </c>
       <c r="X2" t="n">
-        <v>1447.433488874781</v>
+        <v>1295.448754414638</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.772341417937</v>
+        <v>894.5120813627282</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>537.7254774811266</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="M3" t="n">
-        <v>1054.568412147452</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="N3" t="n">
-        <v>1571.411346813777</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>558.8553848592519</v>
+        <v>533.263917876656</v>
       </c>
       <c r="C4" t="n">
-        <v>558.8553848592519</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D4" t="n">
-        <v>558.8553848592519</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2004.559345268545</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1818.167577148456</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1578.618838125158</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1295.820690671282</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1021.934945610804</v>
+        <v>1463.112849513378</v>
       </c>
       <c r="W4" t="n">
-        <v>1021.934945610804</v>
+        <v>1184.043185022252</v>
       </c>
       <c r="X4" t="n">
-        <v>783.5910834704872</v>
+        <v>945.6993228819357</v>
       </c>
       <c r="Y4" t="n">
-        <v>558.8553848592519</v>
+        <v>720.9636242707004</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>881.5511617534476</v>
+        <v>80.25049765783463</v>
       </c>
       <c r="C5" t="n">
-        <v>875.4669751071217</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D5" t="n">
-        <v>471.0030452001823</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E5" t="n">
-        <v>460.703233757483</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
-        <v>443.7132257515746</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4573,46 +4573,46 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>497.1688317915616</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2021.973190736931</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2021.973190736931</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2021.973190736931</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1672.135636073412</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W5" t="n">
-        <v>1288.375335208581</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X5" t="n">
-        <v>887.731937377533</v>
+        <v>689.3025317846932</v>
       </c>
       <c r="Y5" t="n">
-        <v>887.731937377533</v>
+        <v>288.3658587327833</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,22 +4649,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>158.3214934345131</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>158.3214934345131</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>675.1644281008383</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N6" t="n">
-        <v>675.1644281008383</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.4914807361952</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>810.3981082979117</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>650.9034636208218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>489.9926484891412</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1485.891263925851</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1485.891263925851</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1485.891263925851</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>1393.926885741475</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>1169.19118713024</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4783,22 +4783,22 @@
         <v>2082.073505856017</v>
       </c>
       <c r="C8" t="n">
-        <v>2075.989319209691</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="D8" t="n">
-        <v>1671.525389302752</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E8" t="n">
-        <v>1257.185173819648</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F8" t="n">
-        <v>836.1547617733358</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
-        <v>427.426477666168</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>116.517980293886</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4807,25 +4807,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959273</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N8" t="n">
-        <v>1014.011766457887</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O8" t="n">
-        <v>1530.854701124212</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
@@ -4892,19 +4892,19 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1207.227134123859</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N9" t="n">
-        <v>1724.070068790184</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O9" t="n">
-        <v>1724.070068790184</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P9" t="n">
-        <v>1724.070068790184</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>2073.914533474168</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>488.6991486406494</v>
+        <v>966.4678100413298</v>
       </c>
       <c r="C10" t="n">
-        <v>317.6057762023659</v>
+        <v>795.3744376030463</v>
       </c>
       <c r="D10" t="n">
-        <v>158.1111315252759</v>
+        <v>635.8797929259563</v>
       </c>
       <c r="E10" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="F10" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1477.815406002993</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1238.266666979695</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>955.4685195258194</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>955.4685195258194</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>676.3988550346937</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>676.3988550346937</v>
+        <v>1378.90321504661</v>
       </c>
       <c r="Y10" t="n">
-        <v>676.3988550346937</v>
+        <v>1154.167516435374</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2340.613014133292</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281247</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560574</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489461</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764625</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5056,7 +5056,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
         <v>4300.467232046283</v>
@@ -5071,22 +5071,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V11" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>548.6259150320769</v>
+        <v>716.7351475493351</v>
       </c>
       <c r="C13" t="n">
-        <v>479.0023614022008</v>
+        <v>575.4386859457364</v>
       </c>
       <c r="D13" t="n">
-        <v>479.0023614022008</v>
+        <v>445.7409521033313</v>
       </c>
       <c r="E13" t="n">
-        <v>347.8884571052051</v>
+        <v>314.6270478063357</v>
       </c>
       <c r="F13" t="n">
-        <v>213.0542420504813</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G13" t="n">
-        <v>213.0542420504813</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5205,10 +5205,10 @@
         <v>320.2864794362206</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N13" t="n">
         <v>1237.898275478249</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1699.679355498665</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T13" t="n">
-        <v>1489.927527310052</v>
+        <v>1771.485270073111</v>
       </c>
       <c r="U13" t="n">
-        <v>1236.926290690861</v>
+        <v>1771.485270073111</v>
       </c>
       <c r="V13" t="n">
-        <v>992.837456465068</v>
+        <v>1527.396435847318</v>
       </c>
       <c r="W13" t="n">
-        <v>743.5647028086273</v>
+        <v>1278.123682190877</v>
       </c>
       <c r="X13" t="n">
-        <v>743.5647028086273</v>
+        <v>1069.576730885245</v>
       </c>
       <c r="Y13" t="n">
-        <v>548.6259150320769</v>
+        <v>874.6379431086947</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E14" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5308,22 +5308,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V14" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>1266.074801429505</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N15" t="n">
-        <v>2139.732893541123</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>832.7027105453667</v>
+        <v>283.2952179625739</v>
       </c>
       <c r="C16" t="n">
-        <v>832.7027105453667</v>
+        <v>283.2952179625739</v>
       </c>
       <c r="D16" t="n">
-        <v>703.0049767029616</v>
+        <v>283.2952179625739</v>
       </c>
       <c r="E16" t="n">
-        <v>571.8910724059659</v>
+        <v>283.2952179625739</v>
       </c>
       <c r="F16" t="n">
-        <v>437.0568573512421</v>
+        <v>283.2952179625739</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114703</v>
+        <v>283.2952179625739</v>
       </c>
       <c r="H16" t="n">
         <v>179.7928327516118</v>
@@ -5442,7 +5442,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M16" t="n">
         <v>927.8555407749236</v>
@@ -5475,13 +5475,13 @@
         <v>1093.956506260557</v>
       </c>
       <c r="W16" t="n">
-        <v>1093.956506260557</v>
+        <v>844.6837526041157</v>
       </c>
       <c r="X16" t="n">
-        <v>885.4095549549253</v>
+        <v>636.136801298484</v>
       </c>
       <c r="Y16" t="n">
-        <v>885.4095549549253</v>
+        <v>441.1980135219335</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G17" t="n">
         <v>430.910136076462</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5545,10 +5545,10 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
         <v>3816.98692220683</v>
@@ -5560,7 +5560,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.13812587521</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.13812587521</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N18" t="n">
-        <v>1210.13812587521</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>228.0779127453467</v>
+        <v>126.700360677169</v>
       </c>
       <c r="C19" t="n">
-        <v>228.0779127453467</v>
+        <v>126.700360677169</v>
       </c>
       <c r="D19" t="n">
-        <v>228.0779127453467</v>
+        <v>126.700360677169</v>
       </c>
       <c r="E19" t="n">
-        <v>228.0779127453467</v>
+        <v>126.700360677169</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5679,7 +5679,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M19" t="n">
         <v>927.8555407749236</v>
@@ -5709,16 +5709,16 @@
         <v>1181.450483200945</v>
       </c>
       <c r="V19" t="n">
-        <v>937.361648975152</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187111</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X19" t="n">
-        <v>479.5419440130794</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="Y19" t="n">
-        <v>385.9807083047062</v>
+        <v>284.6031562365286</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G20" t="n">
         <v>430.910136076462</v>
@@ -5782,22 +5782,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>947.1447271725442</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>1790.121807867111</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N21" t="n">
-        <v>1790.121807867111</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O21" t="n">
-        <v>1790.121807867111</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
-        <v>1790.121807867111</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>706.8479580667886</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="C22" t="n">
-        <v>565.5514964631899</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="D22" t="n">
-        <v>565.5514964631899</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="E22" t="n">
-        <v>434.4375921661942</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="F22" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G22" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H22" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5916,7 +5916,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M22" t="n">
         <v>927.8555407749236</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1856.27421278407</v>
+        <v>1730.557429382061</v>
       </c>
       <c r="T22" t="n">
-        <v>1856.27421278407</v>
+        <v>1520.805601193448</v>
       </c>
       <c r="U22" t="n">
-        <v>1603.272976164879</v>
+        <v>1267.804364574257</v>
       </c>
       <c r="V22" t="n">
-        <v>1359.184141939085</v>
+        <v>1023.715530348464</v>
       </c>
       <c r="W22" t="n">
-        <v>1109.911388282645</v>
+        <v>774.4427766920232</v>
       </c>
       <c r="X22" t="n">
-        <v>901.3644369770128</v>
+        <v>565.8958253863914</v>
       </c>
       <c r="Y22" t="n">
-        <v>706.8479580667886</v>
+        <v>370.9570376098409</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
         <v>1585.618315208991</v>
@@ -5977,7 +5977,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489449</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G23" t="n">
         <v>430.910136076462</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6016,16 +6016,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
         <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
         <v>3463.023532176683</v>
@@ -6074,22 +6074,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.207126328835</v>
+        <v>126.700360677169</v>
       </c>
       <c r="C25" t="n">
-        <v>3200.910664725237</v>
+        <v>126.700360677169</v>
       </c>
       <c r="D25" t="n">
-        <v>3200.910664725237</v>
+        <v>126.700360677169</v>
       </c>
       <c r="E25" t="n">
-        <v>3171.442064732188</v>
+        <v>126.700360677169</v>
       </c>
       <c r="F25" t="n">
-        <v>3036.607849677464</v>
+        <v>126.700360677169</v>
       </c>
       <c r="G25" t="n">
-        <v>2899.154369437693</v>
+        <v>126.700360677169</v>
       </c>
       <c r="H25" t="n">
-        <v>2899.154369437693</v>
+        <v>126.700360677169</v>
       </c>
       <c r="I25" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M25" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N25" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>4606.709077041224</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>4606.709077041224</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T25" t="n">
-        <v>4396.957248852611</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U25" t="n">
-        <v>4396.957248852611</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V25" t="n">
-        <v>4152.868414626818</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W25" t="n">
-        <v>3903.595660970377</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X25" t="n">
-        <v>3695.048709664745</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="Y25" t="n">
-        <v>3500.109921888195</v>
+        <v>284.6031562365286</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2228.872195796474</v>
+        <v>2228.872195796475</v>
       </c>
       <c r="C26" t="n">
-        <v>1834.576913652326</v>
+        <v>1834.576913652328</v>
       </c>
       <c r="D26" t="n">
-        <v>1445.942292287969</v>
+        <v>1445.942292287971</v>
       </c>
       <c r="E26" t="n">
-        <v>1047.431385347449</v>
+        <v>1047.431385347451</v>
       </c>
       <c r="F26" t="n">
-        <v>642.2302818437189</v>
+        <v>851.7443162252509</v>
       </c>
       <c r="G26" t="n">
-        <v>458.8453406606664</v>
+        <v>458.845340660666</v>
       </c>
       <c r="H26" t="n">
-        <v>163.766151830967</v>
+        <v>163.7661518309668</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6262,16 +6262,16 @@
         <v>4095.124759159358</v>
       </c>
       <c r="V26" t="n">
-        <v>3761.116513038421</v>
+        <v>3761.116513038422</v>
       </c>
       <c r="W26" t="n">
         <v>3393.185520716173</v>
       </c>
       <c r="X26" t="n">
-        <v>3008.371431427708</v>
+        <v>3008.371431427709</v>
       </c>
       <c r="Y26" t="n">
-        <v>2623.26406691838</v>
+        <v>2623.264066918382</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3553.076518855907</v>
+        <v>248.5077615863235</v>
       </c>
       <c r="C28" t="n">
-        <v>3553.076518855907</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3409.411182721399</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3409.411182721399</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3260.609365374573</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3109.188282842699</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3109.188282842699</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3008.671545489608</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3038.268400197403</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K28" t="n">
-        <v>3208.335033222227</v>
+        <v>292.9071854232422</v>
       </c>
       <c r="L28" t="n">
-        <v>3483.746438804872</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M28" t="n">
-        <v>3788.524800547951</v>
+        <v>873.0969527489669</v>
       </c>
       <c r="N28" t="n">
-        <v>4084.877888244787</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O28" t="n">
-        <v>4359.952803873846</v>
+        <v>1444.524956074862</v>
       </c>
       <c r="P28" t="n">
-        <v>4581.142549426044</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1746.757036732156</v>
       </c>
       <c r="R28" t="n">
-        <v>4592.741474749122</v>
+        <v>1746.757036732156</v>
       </c>
       <c r="S28" t="n">
-        <v>4592.741474749122</v>
+        <v>1691.913767111156</v>
       </c>
       <c r="T28" t="n">
-        <v>4592.741474749122</v>
+        <v>1468.194336630441</v>
       </c>
       <c r="U28" t="n">
-        <v>4325.772635837829</v>
+        <v>1201.225497719148</v>
       </c>
       <c r="V28" t="n">
-        <v>4067.716199319933</v>
+        <v>943.1690612012524</v>
       </c>
       <c r="W28" t="n">
-        <v>3804.475843371391</v>
+        <v>679.9287052527096</v>
       </c>
       <c r="X28" t="n">
-        <v>3581.961289773657</v>
+        <v>457.4141516549759</v>
       </c>
       <c r="Y28" t="n">
-        <v>3581.961289773657</v>
+        <v>248.5077615863235</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2228.872195796474</v>
+        <v>2438.386230178005</v>
       </c>
       <c r="C29" t="n">
-        <v>1834.576913652326</v>
+        <v>2044.090948033857</v>
       </c>
       <c r="D29" t="n">
-        <v>1445.94229228797</v>
+        <v>1655.456326669501</v>
       </c>
       <c r="E29" t="n">
-        <v>1047.431385347449</v>
+        <v>1256.94541972898</v>
       </c>
       <c r="F29" t="n">
-        <v>642.2302818437195</v>
+        <v>851.7443162252508</v>
       </c>
       <c r="G29" t="n">
-        <v>249.3313062791344</v>
+        <v>458.8453406606659</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>163.7661518309667</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4542.733117867823</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4336.355942357265</v>
+        <v>4545.869976738794</v>
       </c>
       <c r="U29" t="n">
-        <v>4095.124759159358</v>
+        <v>4304.638793540887</v>
       </c>
       <c r="V29" t="n">
-        <v>3761.116513038421</v>
+        <v>3970.630547419951</v>
       </c>
       <c r="W29" t="n">
-        <v>3393.185520716173</v>
+        <v>3602.699555097703</v>
       </c>
       <c r="X29" t="n">
-        <v>3008.371431427708</v>
+        <v>3217.885465809238</v>
       </c>
       <c r="Y29" t="n">
-        <v>2623.26406691838</v>
+        <v>2832.778101299911</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>303.3510312073222</v>
+        <v>718.4855359949017</v>
       </c>
       <c r="C31" t="n">
-        <v>303.3510312073222</v>
+        <v>718.4855359949017</v>
       </c>
       <c r="D31" t="n">
-        <v>303.3510312073222</v>
+        <v>574.8201998603947</v>
       </c>
       <c r="E31" t="n">
-        <v>193.7604350437139</v>
+        <v>429.7386932712971</v>
       </c>
       <c r="F31" t="n">
-        <v>193.7604350437139</v>
+        <v>280.9368759244713</v>
       </c>
       <c r="G31" t="n">
-        <v>193.7604350437139</v>
+        <v>280.9368759244713</v>
       </c>
       <c r="H31" t="n">
-        <v>193.7604350437139</v>
+        <v>193.7604350437137</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>122.8405523984186</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K31" t="n">
-        <v>292.9071854232419</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L31" t="n">
-        <v>568.3185910058878</v>
+        <v>568.3185910058884</v>
       </c>
       <c r="M31" t="n">
-        <v>873.0969527489665</v>
+        <v>873.0969527489672</v>
       </c>
       <c r="N31" t="n">
-        <v>1169.450040445802</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O31" t="n">
-        <v>1444.524956074862</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P31" t="n">
-        <v>1665.714701627059</v>
+        <v>1665.714701627061</v>
       </c>
       <c r="Q31" t="n">
-        <v>1746.757036732155</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R31" t="n">
-        <v>1746.757036732155</v>
+        <v>1677.313626950139</v>
       </c>
       <c r="S31" t="n">
-        <v>1746.757036732155</v>
+        <v>1506.751167372633</v>
       </c>
       <c r="T31" t="n">
-        <v>1523.03760625144</v>
+        <v>1506.751167372633</v>
       </c>
       <c r="U31" t="n">
-        <v>1256.068767340147</v>
+        <v>1239.78232846134</v>
       </c>
       <c r="V31" t="n">
-        <v>998.0123308222518</v>
+        <v>981.7258919434445</v>
       </c>
       <c r="W31" t="n">
-        <v>734.7719748737088</v>
+        <v>718.4855359949017</v>
       </c>
       <c r="X31" t="n">
-        <v>512.2574212759748</v>
+        <v>718.4855359949017</v>
       </c>
       <c r="Y31" t="n">
-        <v>303.3510312073222</v>
+        <v>718.4855359949017</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2438.386230178005</v>
       </c>
       <c r="C32" t="n">
-        <v>2044.090948033858</v>
+        <v>2044.090948033857</v>
       </c>
       <c r="D32" t="n">
-        <v>1655.456326669502</v>
+        <v>1655.456326669501</v>
       </c>
       <c r="E32" t="n">
-        <v>1256.945419728981</v>
+        <v>1256.94541972898</v>
       </c>
       <c r="F32" t="n">
-        <v>851.7443162252514</v>
+        <v>851.7443162252508</v>
       </c>
       <c r="G32" t="n">
-        <v>458.8453406606662</v>
+        <v>458.8453406606659</v>
       </c>
       <c r="H32" t="n">
-        <v>163.7661518309669</v>
+        <v>163.7661518309667</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4545.869976738796</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4545.869976738796</v>
+        <v>4545.869976738794</v>
       </c>
       <c r="U32" t="n">
-        <v>4304.638793540889</v>
+        <v>4304.638793540887</v>
       </c>
       <c r="V32" t="n">
-        <v>3970.630547419953</v>
+        <v>3970.630547419951</v>
       </c>
       <c r="W32" t="n">
-        <v>3602.699555097704</v>
+        <v>3602.699555097703</v>
       </c>
       <c r="X32" t="n">
-        <v>3217.88546580924</v>
+        <v>3217.885465809238</v>
       </c>
       <c r="Y32" t="n">
-        <v>2832.778101299912</v>
+        <v>2832.778101299911</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3537.596750546853</v>
+        <v>1071.772388193679</v>
       </c>
       <c r="C34" t="n">
-        <v>3382.332686651152</v>
+        <v>916.5083242979783</v>
       </c>
       <c r="D34" t="n">
-        <v>3238.667350516645</v>
+        <v>772.8429881634713</v>
       </c>
       <c r="E34" t="n">
-        <v>3160.092628021481</v>
+        <v>627.7614815743736</v>
       </c>
       <c r="F34" t="n">
-        <v>3160.092628021481</v>
+        <v>478.9596642275478</v>
       </c>
       <c r="G34" t="n">
-        <v>3008.671545489608</v>
+        <v>327.5385816956741</v>
       </c>
       <c r="H34" t="n">
-        <v>3008.671545489608</v>
+        <v>193.7604350437137</v>
       </c>
       <c r="I34" t="n">
-        <v>3008.671545489608</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3038.268400197403</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K34" t="n">
-        <v>3208.335033222227</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L34" t="n">
-        <v>3483.746438804872</v>
+        <v>568.3185910058884</v>
       </c>
       <c r="M34" t="n">
-        <v>3788.524800547951</v>
+        <v>873.0969527489672</v>
       </c>
       <c r="N34" t="n">
-        <v>4084.877888244787</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O34" t="n">
-        <v>4359.952803873846</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P34" t="n">
-        <v>4581.142549426044</v>
+        <v>1665.714701627061</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1677.313626950139</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1506.751167372633</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1452.549176113793</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>1452.549176113793</v>
       </c>
       <c r="V34" t="n">
-        <v>4404.128448013244</v>
+        <v>1452.549176113793</v>
       </c>
       <c r="W34" t="n">
-        <v>4140.888092064702</v>
+        <v>1452.549176113793</v>
       </c>
       <c r="X34" t="n">
-        <v>3918.373538466968</v>
+        <v>1452.549176113793</v>
       </c>
       <c r="Y34" t="n">
-        <v>3709.467148398315</v>
+        <v>1243.642786045141</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2438.386230178005</v>
+        <v>2367.863776037661</v>
       </c>
       <c r="C35" t="n">
-        <v>2044.090948033858</v>
+        <v>1973.568493893513</v>
       </c>
       <c r="D35" t="n">
-        <v>1655.456326669502</v>
+        <v>1584.933872529157</v>
       </c>
       <c r="E35" t="n">
-        <v>1256.945419728981</v>
+        <v>1186.422965588637</v>
       </c>
       <c r="F35" t="n">
-        <v>851.7443162252514</v>
+        <v>781.2218620849069</v>
       </c>
       <c r="G35" t="n">
-        <v>458.8453406606662</v>
+        <v>388.322886520322</v>
       </c>
       <c r="H35" t="n">
-        <v>163.7661518309669</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4545.869976738796</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T35" t="n">
-        <v>4545.869976738796</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U35" t="n">
-        <v>4304.638793540889</v>
+        <v>4234.116339400543</v>
       </c>
       <c r="V35" t="n">
-        <v>3970.630547419953</v>
+        <v>3900.108093279607</v>
       </c>
       <c r="W35" t="n">
-        <v>3602.699555097704</v>
+        <v>3532.177100957359</v>
       </c>
       <c r="X35" t="n">
-        <v>3217.88546580924</v>
+        <v>3147.363011668894</v>
       </c>
       <c r="Y35" t="n">
-        <v>2832.778101299912</v>
+        <v>2762.255647159567</v>
       </c>
     </row>
     <row r="36">
@@ -7025,16 +7025,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>345.1815175755878</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>345.1815175755878</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>345.1815175755878</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>345.1815175755878</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>345.1815175755878</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>193.7604350437139</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>193.7604350437139</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>122.8405523984186</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K37" t="n">
-        <v>292.9071854232419</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L37" t="n">
-        <v>568.3185910058878</v>
+        <v>568.3185910058884</v>
       </c>
       <c r="M37" t="n">
-        <v>873.0969527489665</v>
+        <v>873.0969527489672</v>
       </c>
       <c r="N37" t="n">
-        <v>1169.450040445802</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O37" t="n">
-        <v>1444.524956074862</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P37" t="n">
-        <v>1665.714701627059</v>
+        <v>1665.714701627061</v>
       </c>
       <c r="Q37" t="n">
-        <v>1746.757036732155</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R37" t="n">
-        <v>1746.757036732155</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S37" t="n">
-        <v>1576.194577154648</v>
+        <v>1708.520101066916</v>
       </c>
       <c r="T37" t="n">
-        <v>1352.475146673933</v>
+        <v>1484.800670586201</v>
       </c>
       <c r="U37" t="n">
-        <v>1085.50630776264</v>
+        <v>1217.831831674908</v>
       </c>
       <c r="V37" t="n">
-        <v>827.4498712447447</v>
+        <v>959.7753951570131</v>
       </c>
       <c r="W37" t="n">
-        <v>567.6960711733218</v>
+        <v>696.5350392084704</v>
       </c>
       <c r="X37" t="n">
-        <v>345.1815175755878</v>
+        <v>474.0204856107366</v>
       </c>
       <c r="Y37" t="n">
-        <v>345.1815175755878</v>
+        <v>265.1140955420843</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2438.386230178005</v>
+        <v>2348.323962459792</v>
       </c>
       <c r="C38" t="n">
-        <v>2044.090948033858</v>
+        <v>1954.028680315645</v>
       </c>
       <c r="D38" t="n">
-        <v>1655.456326669502</v>
+        <v>1565.394058951288</v>
       </c>
       <c r="E38" t="n">
-        <v>1256.945419728981</v>
+        <v>1166.883152010768</v>
       </c>
       <c r="F38" t="n">
-        <v>851.7443162252514</v>
+        <v>761.6820485070383</v>
       </c>
       <c r="G38" t="n">
-        <v>458.8453406606662</v>
+        <v>368.7830729424534</v>
       </c>
       <c r="H38" t="n">
-        <v>163.7661518309669</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4542.733117867823</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4336.355942357265</v>
+        <v>4455.807709020582</v>
       </c>
       <c r="U38" t="n">
-        <v>4095.124759159358</v>
+        <v>4214.576525822675</v>
       </c>
       <c r="V38" t="n">
-        <v>3761.116513038421</v>
+        <v>3880.568279701738</v>
       </c>
       <c r="W38" t="n">
-        <v>3393.185520716173</v>
+        <v>3512.63728737949</v>
       </c>
       <c r="X38" t="n">
-        <v>3217.88546580924</v>
+        <v>3127.823198091025</v>
       </c>
       <c r="Y38" t="n">
-        <v>2832.778101299912</v>
+        <v>2742.715833581698</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.074801429505</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.732893541123</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1071.77238819368</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>916.5083242979797</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>772.8429881634725</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>627.7614815743746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>478.9596642275484</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>327.5385816956746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>193.7604350437139</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>122.8405523984186</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K40" t="n">
-        <v>292.9071854232419</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L40" t="n">
-        <v>568.3185910058878</v>
+        <v>568.3185910058884</v>
       </c>
       <c r="M40" t="n">
-        <v>873.0969527489665</v>
+        <v>873.0969527489672</v>
       </c>
       <c r="N40" t="n">
-        <v>1169.450040445802</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O40" t="n">
-        <v>1444.524956074862</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P40" t="n">
-        <v>1665.714701627059</v>
+        <v>1665.714701627061</v>
       </c>
       <c r="Q40" t="n">
-        <v>1746.757036732155</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R40" t="n">
-        <v>1746.757036732155</v>
+        <v>1677.313626950139</v>
       </c>
       <c r="S40" t="n">
-        <v>1746.757036732155</v>
+        <v>1506.751167372633</v>
       </c>
       <c r="T40" t="n">
-        <v>1746.757036732155</v>
+        <v>1283.031736891918</v>
       </c>
       <c r="U40" t="n">
-        <v>1675.063729711529</v>
+        <v>1016.062897980625</v>
       </c>
       <c r="V40" t="n">
-        <v>1675.063729711529</v>
+        <v>758.0064614627296</v>
       </c>
       <c r="W40" t="n">
-        <v>1675.063729711529</v>
+        <v>494.7661055141868</v>
       </c>
       <c r="X40" t="n">
-        <v>1452.549176113795</v>
+        <v>474.0204856107366</v>
       </c>
       <c r="Y40" t="n">
-        <v>1243.642786045142</v>
+        <v>265.1140955420843</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583775</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X41" t="n">
-        <v>2959.412569640574</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>1129.033635947823</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.216283632599</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O42" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.6240469015422</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="C43" t="n">
-        <v>745.5306744632587</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="D43" t="n">
-        <v>586.0360297861687</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="E43" t="n">
-        <v>425.1252146544881</v>
+        <v>625.978222174313</v>
       </c>
       <c r="F43" t="n">
-        <v>260.4940887650794</v>
+        <v>461.3470962849043</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7602,19 +7602,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.642594311473</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W43" t="n">
-        <v>1567.403314047138</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X43" t="n">
-        <v>1329.059451906822</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="Y43" t="n">
-        <v>1104.323753295587</v>
+        <v>786.8890373059935</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7651,7 +7651,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V44" t="n">
-        <v>3744.109543557316</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W44" t="n">
-        <v>3360.349242692484</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N45" t="n">
-        <v>1435.775802995229</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>452.318488259687</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="C46" t="n">
-        <v>281.2251158214035</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="D46" t="n">
-        <v>281.2251158214035</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="E46" t="n">
-        <v>281.2251158214035</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>242.8511528851661</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U46" t="n">
-        <v>913.9039397142094</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V46" t="n">
-        <v>640.0181946537314</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W46" t="n">
-        <v>640.0181946537314</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X46" t="n">
-        <v>640.0181946537314</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="Y46" t="n">
-        <v>640.0181946537314</v>
+        <v>828.6312213896092</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>296.5410069764446</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>557.0846165901667</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
@@ -8072,16 +8072,16 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>502.7883324430332</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,13 +8221,13 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>298.7361805822441</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
@@ -8236,10 +8236,10 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>173.5595280421012</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>528.8634714130243</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8455,28 +8455,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>265.701425083553</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>552.9160747585987</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N9" t="n">
         <v>575.2569637637755</v>
@@ -8552,10 +8552,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>73.48479305079316</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
@@ -8777,22 +8777,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>557.7944283533855</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -9005,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>194.2512024630824</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9245,7 +9245,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
@@ -9257,13 +9257,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>429.3564034215989</v>
+        <v>536.3885161299984</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
@@ -9488,19 +9488,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>409.835129286669</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9722,25 +9722,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>741.5205988334646</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O24" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10673,19 +10673,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10907,22 +10907,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11065,7 +11065,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
@@ -11147,22 +11147,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1758658026146</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>70.76403821083073</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O45" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>70.95617889398524</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501629</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>178.6343060378936</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>104.143991638303</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>16.14507755740748</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,10 +23898,10 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
         <v>136.078945437374</v>
@@ -23910,7 +23910,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103791</v>
+        <v>52.56154735369837</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>100.3637765474955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
         <v>136.078945437374</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>85.49034255957898</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.4180857776629523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>100.6288512609078</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.6836437103791</v>
+        <v>52.56154735369837</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>207.4188940377145</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4188940377173</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>141.5557706643748</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C28" t="n">
-        <v>153.7114232567438</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E28" t="n">
-        <v>143.6306915232069</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>149.906871706555</v>
       </c>
       <c r="H28" t="n">
-        <v>132.4403651854411</v>
+        <v>132.4403651854409</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>99.51156997956008</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>68.74897568419732</v>
       </c>
       <c r="S28" t="n">
-        <v>168.856834981732</v>
+        <v>114.5619980569411</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4822361759081</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.8173261679661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>137.6016644387759</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>69.81722959894068</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>118.257248996683</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>89.16164504103077</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.1516938729471</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C31" t="n">
-        <v>153.7114232567438</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D31" t="n">
-        <v>142.2286827731622</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35.13600132123467</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>147.3137991733578</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>149.9068717065551</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H31" t="n">
-        <v>132.440365185441</v>
+        <v>46.13568871349084</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.74897568419746</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.856834981732</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>220.2894080617563</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>206.8173261679658</v>
       </c>
     </row>
     <row r="32">
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.105490282263176</v>
+        <v>118.257248996683</v>
       </c>
       <c r="T32" t="n">
-        <v>204.3134037554529</v>
+        <v>89.16164504103077</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>65.84171625299473</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>147.3137991733578</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>132.440365185441</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>99.51156997956022</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.74897568419746</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.856834981732</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.482236175908</v>
+        <v>167.8222648296566</v>
       </c>
       <c r="U34" t="n">
-        <v>264.2991505221802</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>220.2894080617563</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>69.81722959894049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.105490282263176</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3134037554529</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>137.6016644387734</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170.1516938729471</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>153.7114232567438</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D37" t="n">
-        <v>142.2286827731622</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6306915232068</v>
+        <v>143.6306915232066</v>
       </c>
       <c r="F37" t="n">
-        <v>147.3137991733578</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H37" t="n">
-        <v>132.440365185441</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>99.51156997956002</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.74897568419746</v>
+        <v>68.74897568419726</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>131.0022686731434</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>3.451690318348767</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.8173261679661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>19.34441544208988</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>69.81722959894049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>118.257248996683</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>207.4188940377165</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>143.6306915232066</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>99.51156997956002</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.74897568419746</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.856834981732</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.482236175908</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>193.32277657176</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>255.4758721527164</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>260.6079523890575</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>199.7512443573406</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3.083197172522773</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>45.55681957368</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>64.44948863468839</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>221.5920803845231</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="V44" t="n">
-        <v>45.84716204233393</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>23.12472639190895</v>
       </c>
       <c r="F46" t="n">
-        <v>124.9945913236396</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>551415.3353207882</v>
+        <v>551415.3353207884</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>551415.3353207883</v>
+        <v>551415.3353207884</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>530656.1289283913</v>
+        <v>530656.1289283915</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>530656.1289283913</v>
+        <v>530656.1289283915</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>530656.1289283914</v>
+        <v>530656.1289283915</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>530656.1289283913</v>
+        <v>530656.1289283916</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>530656.1289283913</v>
+        <v>530656.1289283916</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>507129.9806165785</v>
+        <v>507129.9806165786</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>507129.9806165786</v>
+        <v>507129.9806165784</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>586376.6149168452</v>
       </c>
       <c r="C2" t="n">
-        <v>586376.6149168451</v>
+        <v>586376.6149168452</v>
       </c>
       <c r="D2" t="n">
-        <v>586376.6149168455</v>
+        <v>586376.6149168453</v>
       </c>
       <c r="E2" t="n">
-        <v>568257.977132332</v>
+        <v>568257.9771323317</v>
       </c>
       <c r="F2" t="n">
         <v>568257.9771323322</v>
       </c>
       <c r="G2" t="n">
+        <v>568257.9771323317</v>
+      </c>
+      <c r="H2" t="n">
+        <v>568257.9771323318</v>
+      </c>
+      <c r="I2" t="n">
         <v>568257.977132332</v>
       </c>
-      <c r="H2" t="n">
-        <v>568257.9771323323</v>
-      </c>
-      <c r="I2" t="n">
-        <v>568257.9771323317</v>
-      </c>
       <c r="J2" t="n">
-        <v>546277.640952146</v>
+        <v>546277.6409521474</v>
       </c>
       <c r="K2" t="n">
-        <v>546277.6409521459</v>
+        <v>546277.6409521479</v>
       </c>
       <c r="L2" t="n">
-        <v>546277.6409521459</v>
+        <v>546277.6409521477</v>
       </c>
       <c r="M2" t="n">
-        <v>546277.6409521463</v>
+        <v>546277.6409521475</v>
       </c>
       <c r="N2" t="n">
-        <v>546277.6409521461</v>
+        <v>546277.6409521479</v>
       </c>
       <c r="O2" t="n">
-        <v>521367.6015631692</v>
+        <v>521367.601563169</v>
       </c>
       <c r="P2" t="n">
-        <v>521367.6015631689</v>
+        <v>521367.601563169</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>149131.6131716204</v>
+        <v>149131.6131716206</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>164775.2337200961</v>
       </c>
       <c r="E4" t="n">
-        <v>45275.40315393296</v>
+        <v>45275.40315393293</v>
       </c>
       <c r="F4" t="n">
-        <v>45275.4031539329</v>
+        <v>45275.40315393287</v>
       </c>
       <c r="G4" t="n">
-        <v>45275.4031539329</v>
+        <v>45275.40315393287</v>
       </c>
       <c r="H4" t="n">
-        <v>45275.40315393289</v>
+        <v>45275.40315393287</v>
       </c>
       <c r="I4" t="n">
-        <v>45275.40315393291</v>
+        <v>45275.40315393287</v>
       </c>
       <c r="J4" t="n">
-        <v>31301.65139420299</v>
+        <v>31301.65139420321</v>
       </c>
       <c r="K4" t="n">
-        <v>31301.65139420305</v>
+        <v>31301.65139420327</v>
       </c>
       <c r="L4" t="n">
-        <v>31301.65139420305</v>
+        <v>31301.65139420327</v>
       </c>
       <c r="M4" t="n">
-        <v>31301.65139420305</v>
+        <v>31301.65139420328</v>
       </c>
       <c r="N4" t="n">
-        <v>31301.65139420306</v>
+        <v>31301.65139420327</v>
       </c>
       <c r="O4" t="n">
         <v>15465.37373706398</v>
@@ -26493,19 +26493,19 @@
         <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>72182.65684334104</v>
+        <v>72182.65684334106</v>
       </c>
       <c r="K5" t="n">
-        <v>72182.65684334104</v>
+        <v>72182.65684334106</v>
       </c>
       <c r="L5" t="n">
-        <v>72182.65684334104</v>
+        <v>72182.65684334106</v>
       </c>
       <c r="M5" t="n">
-        <v>72182.65684334104</v>
+        <v>72182.65684334106</v>
       </c>
       <c r="N5" t="n">
-        <v>72182.65684334104</v>
+        <v>72182.65684334106</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181276.8062251376</v>
+        <v>181276.8062251375</v>
       </c>
       <c r="C6" t="n">
         <v>356232.3161182515</v>
       </c>
       <c r="D6" t="n">
-        <v>356232.3161182518</v>
+        <v>356232.3161182517</v>
       </c>
       <c r="E6" t="n">
-        <v>233908.5009210206</v>
+        <v>233858.1713716189</v>
       </c>
       <c r="F6" t="n">
-        <v>449637.4172015345</v>
+        <v>449587.087652133</v>
       </c>
       <c r="G6" t="n">
-        <v>449637.4172015343</v>
+        <v>449587.0876521326</v>
       </c>
       <c r="H6" t="n">
-        <v>449637.4172015346</v>
+        <v>449587.0876521327</v>
       </c>
       <c r="I6" t="n">
-        <v>449637.417201534</v>
+        <v>449587.0876521329</v>
       </c>
       <c r="J6" t="n">
-        <v>293661.7195429816</v>
+        <v>293550.3335041917</v>
       </c>
       <c r="K6" t="n">
-        <v>442793.3327146018</v>
+        <v>442681.9466758128</v>
       </c>
       <c r="L6" t="n">
-        <v>442793.3327146018</v>
+        <v>442681.9466758125</v>
       </c>
       <c r="M6" t="n">
-        <v>282434.8822139195</v>
+        <v>282323.4961751297</v>
       </c>
       <c r="N6" t="n">
-        <v>442793.3327146021</v>
+        <v>442681.9466758128</v>
       </c>
       <c r="O6" t="n">
-        <v>435037.0175812319</v>
+        <v>434856.4369885827</v>
       </c>
       <c r="P6" t="n">
-        <v>435037.0175812317</v>
+        <v>434856.4369885826</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="K2" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="L2" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="M2" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="N2" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>212.5885579978967</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>242.8227703391155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.562004291912942</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>164.1762662001701</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>200.0847604036454</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>68.30998461810083</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>144.9156891163807</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>325.994634282359</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.48287933845646</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>176.532751095259</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>45.62226398710956</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="C26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="D26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="E26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="F26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="G26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="H26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="T26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="U26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="V26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="W26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="X26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="C28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="D28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="E28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="F28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="G28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="H28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="I28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="J28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="K28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="L28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="M28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="N28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="O28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="P28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="R28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="S28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="T28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="U28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="V28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="W28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="X28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.67101545715682</v>
+        <v>15.67101545715703</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="C29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="D29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="E29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="F29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="G29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="H29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="T29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="U29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="V29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="W29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="X29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="C31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="D31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="E31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="F31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="G31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="H31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="I31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="J31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="K31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="L31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="M31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="N31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="O31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="P31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="R31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="S31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="T31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="U31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="V31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="W31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="X31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="C32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="D32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="E32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="F32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="G32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="H32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="T32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="U32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="V32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="W32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="X32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="C34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="D34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="E34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="F34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="G34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="H34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="I34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="J34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="K34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="L34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="M34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="N34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="O34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="P34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="R34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="S34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="T34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="U34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="V34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="W34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="X34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="C35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="D35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="E35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="F35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="G35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="H35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="T35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="U35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="V35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="W35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="X35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="C37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="D37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="E37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="F37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="G37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="H37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="I37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="J37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="K37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="L37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="M37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="N37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="O37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="P37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="R37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="S37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="T37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="U37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="V37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="W37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="X37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="C38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="D38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="E38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="F38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="G38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="H38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="T38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="U38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="V38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="W38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="X38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="C40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="D40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="E40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="F40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="G40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="H40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="I40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="J40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="K40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="L40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="M40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="N40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="O40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="P40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="R40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="S40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="T40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="U40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="V40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="W40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="X40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.67101545715688</v>
+        <v>15.67101545715709</v>
       </c>
     </row>
     <row r="41">
@@ -34704,25 +34704,25 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>203.2507825193992</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>500.9700927793176</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
@@ -34792,16 +34792,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34941,13 +34941,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34956,10 +34956,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>117.7337452574859</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>471.1119924130243</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>176.5650354103358</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N9" t="n">
         <v>522.0635703700256</v>
@@ -35272,10 +35272,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>504.6010349596355</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K13" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
         <v>292.0212652415507</v>
@@ -35588,7 +35588,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.425419678467</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35825,7 +35825,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
@@ -35977,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>371.6049244215989</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36062,7 +36062,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.1425107818303</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36299,7 +36299,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>688.3272054397147</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O24" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36536,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.89581283615735</v>
+        <v>29.89581283615756</v>
       </c>
       <c r="K28" t="n">
-        <v>171.7844778028517</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L28" t="n">
-        <v>278.1933389723695</v>
+        <v>278.1933389723697</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8569310536147</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N28" t="n">
-        <v>299.3465532291268</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O28" t="n">
-        <v>277.8534501303631</v>
+        <v>277.8534501303632</v>
       </c>
       <c r="P28" t="n">
-        <v>223.4239854062602</v>
+        <v>223.4239854062604</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.86094455060211</v>
+        <v>81.86094455060231</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.8958128361574</v>
+        <v>29.89581283615762</v>
       </c>
       <c r="K31" t="n">
-        <v>171.7844778028518</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L31" t="n">
-        <v>278.1933389723696</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8569310536147</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N31" t="n">
-        <v>299.3465532291269</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O31" t="n">
-        <v>277.8534501303631</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P31" t="n">
-        <v>223.4239854062603</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.86094455060217</v>
+        <v>81.86094455060237</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.8958128361574</v>
+        <v>29.89581283615762</v>
       </c>
       <c r="K34" t="n">
-        <v>171.7844778028518</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L34" t="n">
-        <v>278.1933389723696</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8569310536147</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N34" t="n">
-        <v>299.3465532291269</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O34" t="n">
-        <v>277.8534501303631</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P34" t="n">
-        <v>223.4239854062603</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.86094455060217</v>
+        <v>81.86094455060237</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.8958128361574</v>
+        <v>29.89581283615762</v>
       </c>
       <c r="K37" t="n">
-        <v>171.7844778028518</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L37" t="n">
-        <v>278.1933389723696</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8569310536147</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N37" t="n">
-        <v>299.3465532291269</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O37" t="n">
-        <v>277.8534501303631</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P37" t="n">
-        <v>223.4239854062603</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.86094455060217</v>
+        <v>81.86094455060237</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.8958128361574</v>
+        <v>29.89581283615762</v>
       </c>
       <c r="K40" t="n">
-        <v>171.7844778028518</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L40" t="n">
-        <v>278.1933389723696</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8569310536147</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N40" t="n">
-        <v>299.3465532291269</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O40" t="n">
-        <v>277.8534501303631</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P40" t="n">
-        <v>223.4239854062603</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.86094455060217</v>
+        <v>81.86094455060237</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>279.9824724088646</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>13.19975447241331</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O45" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
